--- a/src/assets/学生第二期.xlsx
+++ b/src/assets/学生第二期.xlsx
@@ -879,7 +879,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +892,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -961,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -969,19 +975,25 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1295,18 +1307,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="20.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
@@ -3075,49 +3087,49 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
